--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1639037.463064213</v>
+        <v>1636352.05483077</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673419</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7.155295256393378</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>225.1346772411287</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>63.46626791713579</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.45026453085336</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>109.9348354267468</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>42.4007458372885</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>38.70141248899606</v>
+        <v>223.1303842197068</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3232867394218</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.4773344784373</v>
+        <v>383.4773344784364</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>25.0451888744324</v>
+        <v>36.28687735603351</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.38436933829631</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>143.0309654321256</v>
@@ -1032,7 +1032,7 @@
         <v>225.839898471748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9432680061172</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>17.95964390688038</v>
       </c>
       <c r="D7" t="n">
-        <v>135.6711127782059</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,16 +1066,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6977565348686</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7292459486107</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848242</v>
+        <v>1.928326488848342</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>264.3750251656577</v>
       </c>
       <c r="H8" t="n">
-        <v>77.56194335996979</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.41653965146601</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2895306291947</v>
       </c>
       <c r="G11" t="n">
         <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.15636898111872</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>321.5273874972294</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>86.64179915749271</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489821</v>
+        <v>8.282546271489807</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>19.74250385110202</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628533</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>183.0273559628781</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446353023</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>298.949442580122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>26.36085357345781</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1819,7 +1819,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>236.4875190616741</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2715658672533</v>
+        <v>233.271565867255</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>127.2267901032738</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>41.60617040425771</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261898</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>34.32106446352954</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.28699046757696</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.749532638427741</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>62.18842302760128</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756239</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179651</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634802</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710078</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.006892987832362</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>177.1006680594876</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890362</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634801</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206825</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>4.019807611470727</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225841</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710072</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>9.146142788178468</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766857</v>
       </c>
       <c r="D43" t="n">
-        <v>123.7971820797018</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,19 +4135,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456778</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>83.06560892428173</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>833.193892875099</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>833.193892875099</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
         <v>34.06092317356495</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>1047.627949039971</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>833.193892875099</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>833.193892875099</v>
       </c>
       <c r="V2" t="n">
-        <v>573.7617370571245</v>
+        <v>833.193892875099</v>
       </c>
       <c r="W2" t="n">
-        <v>573.7617370571245</v>
+        <v>833.193892875099</v>
       </c>
       <c r="X2" t="n">
-        <v>307.3840804899464</v>
+        <v>833.193892875099</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>833.193892875099</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.869123378691</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="C3" t="n">
-        <v>326.869123378691</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>977.6330305809204</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>977.6330305809204</v>
+        <v>826.7196740428383</v>
       </c>
       <c r="V3" t="n">
-        <v>742.4809223491777</v>
+        <v>591.5675658110956</v>
       </c>
       <c r="W3" t="n">
-        <v>742.4809223491777</v>
+        <v>337.330209082894</v>
       </c>
       <c r="X3" t="n">
-        <v>534.6294221436449</v>
+        <v>337.330209082894</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.869123378691</v>
+        <v>129.5699103179401</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>394.609898276533</v>
+        <v>426.9454397902692</v>
       </c>
       <c r="C4" t="n">
-        <v>394.609898276533</v>
+        <v>426.9454397902692</v>
       </c>
       <c r="D4" t="n">
-        <v>394.609898276533</v>
+        <v>426.9454397902692</v>
       </c>
       <c r="E4" t="n">
-        <v>394.609898276533</v>
+        <v>279.0323462078761</v>
       </c>
       <c r="F4" t="n">
-        <v>247.7199507786227</v>
+        <v>132.1423987099658</v>
       </c>
       <c r="G4" t="n">
-        <v>79.15059013362614</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>79.15059013362614</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U4" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="V4" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="W4" t="n">
-        <v>622.5994491745504</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="X4" t="n">
-        <v>394.609898276533</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="Y4" t="n">
-        <v>394.609898276533</v>
+        <v>608.593904620509</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.26119413147217</v>
+        <v>275.5530847685537</v>
       </c>
       <c r="C5" t="n">
-        <v>89.26119413147217</v>
+        <v>275.5530847685537</v>
       </c>
       <c r="D5" t="n">
-        <v>89.26119413147217</v>
+        <v>275.5530847685537</v>
       </c>
       <c r="E5" t="n">
-        <v>50.1688582840014</v>
+        <v>50.16885828400133</v>
       </c>
       <c r="F5" t="n">
-        <v>43.22335753479793</v>
+        <v>43.22335753479786</v>
       </c>
       <c r="G5" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827492</v>
       </c>
       <c r="H5" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827492</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827492</v>
       </c>
       <c r="J5" t="n">
-        <v>93.6884022714421</v>
+        <v>93.68840227144165</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998582993</v>
+        <v>238.8628998582983</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799371</v>
+        <v>455.8664631799356</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296673</v>
+        <v>728.9941769296655</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012935</v>
+        <v>1011.155191012932</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.256574219954</v>
+        <v>1264.256574219952</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220735</v>
+        <v>1445.771748220732</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913746</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913746</v>
       </c>
       <c r="S5" t="n">
-        <v>1533.909337913749</v>
+        <v>1389.138341207259</v>
       </c>
       <c r="T5" t="n">
-        <v>1533.909337913749</v>
+        <v>1389.138341207259</v>
       </c>
       <c r="U5" t="n">
-        <v>1533.909337913749</v>
+        <v>1389.138341207259</v>
       </c>
       <c r="V5" t="n">
-        <v>1202.846450570179</v>
+        <v>1389.138341207259</v>
       </c>
       <c r="W5" t="n">
-        <v>850.0777953000645</v>
+        <v>1036.369685937145</v>
       </c>
       <c r="X5" t="n">
-        <v>476.6120370389846</v>
+        <v>662.9039276760652</v>
       </c>
       <c r="Y5" t="n">
-        <v>89.26119413147217</v>
+        <v>275.5530847685537</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="C6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="D6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="E6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="F6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="G6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="H6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827492</v>
       </c>
       <c r="J6" t="n">
-        <v>57.81740116028477</v>
+        <v>49.38879249773404</v>
       </c>
       <c r="K6" t="n">
-        <v>167.9516312753803</v>
+        <v>388.6148927670091</v>
       </c>
       <c r="L6" t="n">
-        <v>362.3632362284486</v>
+        <v>583.026497720077</v>
       </c>
       <c r="M6" t="n">
-        <v>608.5892775779453</v>
+        <v>829.2525390695732</v>
       </c>
       <c r="N6" t="n">
-        <v>875.740834489258</v>
+        <v>1096.404095980885</v>
       </c>
       <c r="O6" t="n">
-        <v>1097.912521571345</v>
+        <v>1318.575783062973</v>
       </c>
       <c r="P6" t="n">
-        <v>1477.555082704998</v>
+        <v>1477.555082704995</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913749</v>
+        <v>1533.909337913746</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.48068201648</v>
+        <v>1533.909337913746</v>
       </c>
       <c r="S6" t="n">
-        <v>1385.004959357767</v>
+        <v>1389.433615255033</v>
       </c>
       <c r="T6" t="n">
-        <v>1189.098730836363</v>
+        <v>1193.527386733629</v>
       </c>
       <c r="U6" t="n">
-        <v>960.9776212689409</v>
+        <v>965.4062771662065</v>
       </c>
       <c r="V6" t="n">
-        <v>725.8255130371981</v>
+        <v>737.1807539277042</v>
       </c>
       <c r="W6" t="n">
-        <v>471.5881563089965</v>
+        <v>482.9433971995026</v>
       </c>
       <c r="X6" t="n">
-        <v>263.7366561034636</v>
+        <v>275.0918969939697</v>
       </c>
       <c r="Y6" t="n">
-        <v>55.97635733850973</v>
+        <v>67.33159822901584</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.1038962734607</v>
+        <v>495.6867262364987</v>
       </c>
       <c r="C7" t="n">
-        <v>785.1038962734607</v>
+        <v>477.5456717851043</v>
       </c>
       <c r="D7" t="n">
-        <v>648.0623682146669</v>
+        <v>327.4290323727686</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1492746322738</v>
+        <v>179.5159387903755</v>
       </c>
       <c r="F7" t="n">
-        <v>353.2593271343634</v>
+        <v>32.62599129246516</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8777548769204</v>
+        <v>32.62599129246516</v>
       </c>
       <c r="H7" t="n">
-        <v>32.62599129246512</v>
+        <v>32.62599129246516</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246512</v>
+        <v>32.62599129246516</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827498</v>
+        <v>30.67818675827492</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199915</v>
+        <v>157.3778790199912</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406463</v>
+        <v>375.0362985406458</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573551</v>
+        <v>614.9157070573544</v>
       </c>
       <c r="N7" t="n">
-        <v>854.5259358182304</v>
+        <v>854.5259358182296</v>
       </c>
       <c r="O7" t="n">
         <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281385</v>
+        <v>1211.979570281384</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.886026315008</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="W7" t="n">
-        <v>1233.886026315008</v>
+        <v>944.4688562780461</v>
       </c>
       <c r="X7" t="n">
-        <v>1005.896475416991</v>
+        <v>716.4793053800288</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.1038962734607</v>
+        <v>495.6867262364987</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1296.296386131215</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C8" t="n">
-        <v>1296.296386131215</v>
+        <v>1473.332122527916</v>
       </c>
       <c r="D8" t="n">
-        <v>938.0306875244648</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E8" t="n">
-        <v>552.2424349262205</v>
+        <v>729.2781713229215</v>
       </c>
       <c r="F8" t="n">
-        <v>141.256530136613</v>
+        <v>318.2922665333139</v>
       </c>
       <c r="G8" t="n">
-        <v>129.5921839013059</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131215</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>869.6648135671838</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>580.2476435302233</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>352.2580926322059</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.4655134886758</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1941.660352309259</v>
+        <v>2008.261598061995</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.660352309259</v>
+        <v>1639.299081121583</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.394653702509</v>
+        <v>1281.033382514833</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.606401104264</v>
+        <v>895.2451299165887</v>
       </c>
       <c r="F11" t="n">
-        <v>786.6204963146569</v>
+        <v>494.9526747355841</v>
       </c>
       <c r="G11" t="n">
-        <v>372.1256884213071</v>
+        <v>80.45786684223417</v>
       </c>
       <c r="H11" t="n">
         <v>80.45786684223417</v>
@@ -5039,22 +5039,22 @@
         <v>80.45786684223417</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746725</v>
+        <v>317.3880320746716</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947055</v>
+        <v>723.2234501947059</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653017</v>
+        <v>1263.599934653018</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.54233045867</v>
+        <v>1896.542330458671</v>
       </c>
       <c r="N11" t="n">
         <v>2544.340204328194</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990716</v>
+        <v>3142.702105990717</v>
       </c>
       <c r="P11" t="n">
         <v>3618.889144608865</v>
@@ -5063,28 +5063,28 @@
         <v>3928.313032718608</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111708</v>
+        <v>4022.893342111709</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111708</v>
+        <v>3925.765696676235</v>
       </c>
       <c r="T11" t="n">
-        <v>4022.893342111708</v>
+        <v>3722.316578060846</v>
       </c>
       <c r="U11" t="n">
-        <v>3769.409076766477</v>
+        <v>3468.832312715613</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.633937880386</v>
+        <v>3137.769425372042</v>
       </c>
       <c r="W11" t="n">
-        <v>3091.865282610273</v>
+        <v>2785.000770101929</v>
       </c>
       <c r="X11" t="n">
-        <v>2718.399524349193</v>
+        <v>2785.000770101929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2328.260192373381</v>
+        <v>2394.861438126117</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.8240751972744</v>
+        <v>88.82407519727438</v>
       </c>
       <c r="I12" t="n">
         <v>80.45786684223417</v>
@@ -5121,19 +5121,19 @@
         <v>202.7540031635564</v>
       </c>
       <c r="K12" t="n">
-        <v>489.9324039036204</v>
+        <v>489.9324039036205</v>
       </c>
       <c r="L12" t="n">
-        <v>922.4017448696466</v>
+        <v>922.4017448696468</v>
       </c>
       <c r="M12" t="n">
         <v>1446.429935688259</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.537290639334</v>
+        <v>1998.73623833904</v>
       </c>
       <c r="O12" t="n">
-        <v>2189.569860571536</v>
+        <v>2481.768808271242</v>
       </c>
       <c r="P12" t="n">
         <v>2557.913016602452</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>694.3137302627802</v>
+        <v>542.3429824008721</v>
       </c>
       <c r="C13" t="n">
-        <v>525.3775473348734</v>
+        <v>542.3429824008721</v>
       </c>
       <c r="D13" t="n">
-        <v>375.2609079225376</v>
+        <v>392.2263429885363</v>
       </c>
       <c r="E13" t="n">
-        <v>227.3478143401445</v>
+        <v>244.3132494061431</v>
       </c>
       <c r="F13" t="n">
-        <v>80.45786684223417</v>
+        <v>224.3713263242217</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223417</v>
+        <v>224.3713263242217</v>
       </c>
       <c r="H13" t="n">
         <v>80.45786684223417</v>
@@ -5197,13 +5197,13 @@
         <v>80.45786684223417</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283905</v>
+        <v>143.5350566283906</v>
       </c>
       <c r="K13" t="n">
         <v>377.0270927076826</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977136</v>
+        <v>731.3429449977139</v>
       </c>
       <c r="M13" t="n">
         <v>1115.308455583785</v>
@@ -5221,28 +5221,28 @@
         <v>2193.0011931677</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191654</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="S13" t="n">
-        <v>2114.821283191654</v>
+        <v>2005.830897168756</v>
       </c>
       <c r="T13" t="n">
-        <v>2114.821283191654</v>
+        <v>1785.171389950013</v>
       </c>
       <c r="U13" t="n">
-        <v>1825.732549613618</v>
+        <v>1496.082656371977</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.048061407731</v>
+        <v>1241.39816816609</v>
       </c>
       <c r="W13" t="n">
-        <v>1281.63089137077</v>
+        <v>951.9809981291291</v>
       </c>
       <c r="X13" t="n">
-        <v>1096.75477423655</v>
+        <v>723.9914472311118</v>
       </c>
       <c r="Y13" t="n">
-        <v>875.9621950930199</v>
+        <v>723.9914472311118</v>
       </c>
     </row>
     <row r="14">
@@ -5261,28 +5261,28 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
         <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5297,22 +5297,22 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
         <v>3467.429399206857</v>
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>97.83671828559034</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>428.3454608489491</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>919.0777936927003</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1511.096147944828</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.192111344164</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O15" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>494.0589900220728</v>
+        <v>612.1182668683664</v>
       </c>
       <c r="C16" t="n">
-        <v>494.0589900220727</v>
+        <v>612.1182668683664</v>
       </c>
       <c r="D16" t="n">
-        <v>343.9423506097371</v>
+        <v>612.1182668683664</v>
       </c>
       <c r="E16" t="n">
-        <v>343.9423506097371</v>
+        <v>464.2051732859734</v>
       </c>
       <c r="F16" t="n">
-        <v>343.9423506097371</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="G16" t="n">
         <v>317.3152257880632</v>
@@ -5431,13 +5431,13 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
         <v>819.184291169332</v>
@@ -5452,34 +5452,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136708</v>
+        <v>1786.650519983001</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.906754930821</v>
+        <v>1531.966031777114</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.48958489386</v>
+        <v>1242.548861740154</v>
       </c>
       <c r="X16" t="n">
-        <v>896.5000339958426</v>
+        <v>1014.559310842136</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.7074548523125</v>
+        <v>793.7667316986061</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555044</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614633</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007882</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.408479409638</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F17" t="n">
-        <v>742.4225746200307</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G17" t="n">
-        <v>328.4394675364374</v>
+        <v>328.4394675364391</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608066</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251938</v>
       </c>
       <c r="K17" t="n">
-        <v>841.937882512877</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
         <v>2919.747202874796</v>
@@ -5531,34 +5531,34 @@
         <v>3602.609239333934</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619166</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060316</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524492</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608053</v>
+        <v>572.0073801158081</v>
       </c>
       <c r="L18" t="n">
-        <v>141.6400447072593</v>
+        <v>1062.73971295956</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593869</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358723</v>
+        <v>2276.854030611024</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.385284034031</v>
+        <v>1078.984099646863</v>
       </c>
       <c r="C19" t="n">
-        <v>929.4491011061236</v>
+        <v>910.0479167189565</v>
       </c>
       <c r="D19" t="n">
-        <v>779.3324616937879</v>
+        <v>759.9312773066208</v>
       </c>
       <c r="E19" t="n">
         <v>631.4193681113948</v>
@@ -5668,22 +5668,22 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
         <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
@@ -5692,31 +5692,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>2245.205584149099</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>2025.526801863481</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.500367111705</v>
+        <v>2025.526801863481</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.815878905818</v>
+        <v>1770.842313657594</v>
       </c>
       <c r="W19" t="n">
-        <v>1728.815878905818</v>
+        <v>1481.425143620633</v>
       </c>
       <c r="X19" t="n">
-        <v>1500.8263280078</v>
+        <v>1481.425143620633</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.03374886427</v>
+        <v>1260.632564477103</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5735,25 +5735,25 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L20" t="n">
         <v>1461.457663018651</v>
@@ -5771,31 +5771,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126172</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594978</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619166</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060311</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>106.3138404733492</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K21" t="n">
-        <v>106.3138404733492</v>
+        <v>301.0525042748299</v>
       </c>
       <c r="L21" t="n">
-        <v>106.3138404733492</v>
+        <v>791.7848371185813</v>
       </c>
       <c r="M21" t="n">
-        <v>698.3321947254767</v>
+        <v>1383.803191370709</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.428158124813</v>
+        <v>2005.899154770045</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.9078859615893</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C22" t="n">
-        <v>620.9717030336824</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D22" t="n">
-        <v>470.8550636213465</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="E22" t="n">
-        <v>322.9419700389533</v>
+        <v>177.2097135117738</v>
       </c>
       <c r="F22" t="n">
-        <v>260.0258180515017</v>
+        <v>177.2097135117738</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>177.2097135117738</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K22" t="n">
-        <v>431.422473086198</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693327</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
         <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.348929935359</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.556350791829</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098234</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819165</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695806</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871876</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892774</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041574</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,16 +6695,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.899304487667</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597601</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>408.9258559154851</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782941</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602302</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396415</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359454</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614369</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179067</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876675</v>
+        <v>741.8431516380883</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597606</v>
+        <v>572.9069687101814</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>422.7903292978441</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>422.7903292978441</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>422.7903292978441</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396415</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614373</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179072</v>
+        <v>923.4916164683281</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7178,19 +7178,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>580.8993044876679</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>411.963121559761</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>983.3403484614378</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>762.5477693179076</v>
       </c>
     </row>
     <row r="41">
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851662</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572593</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
         <v>402.7245934908939</v>
@@ -7567,16 +7567,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7810,7 +7810,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188152</v>
+        <v>34.48513033188172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>8.513746123788415</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.4059294486666</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>222.892183324879</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10.58651511251674</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344954</v>
+        <v>19.53007201344951</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111875</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.224870972905535</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.6785441718292</v>
       </c>
       <c r="G13" t="n">
         <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>88.63818461247361</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628532</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>42.68229942615906</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613728938</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>50.29152613729104</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1811993037091</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>49.69793248674628</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>50.29152613729104</v>
+        <v>50.29152613728936</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>19.20717254329539</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>244.5792811441627</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613729082</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729006</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.13405755535427</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>138.7044571535261</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>84.24553961896788</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.89260457059999</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347516</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.60858003038</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>109.4223302771034</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>144.5956654067416</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>61.40075786968477</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300339</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="D43" t="n">
-        <v>24.81829093851056</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,19 +26023,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295007</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>63.36835372228744</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>828517.9728185146</v>
+        <v>828517.9728185143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890877.0203469944</v>
+        <v>890877.0203469946</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>890877.0203469944</v>
+        <v>890877.0203469946</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890877.0203469942</v>
+        <v>890877.0203469944</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041668</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797093</v>
+        <v>484893.3234797094</v>
       </c>
       <c r="F2" t="n">
         <v>521741.8515647201</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.85156472</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
@@ -26366,40 +26366,40 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199668</v>
+        <v>132571.3256199658</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698673</v>
+        <v>265633.5342698682</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979659</v>
+        <v>348407.0423979663</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.0300046374</v>
+        <v>143852.0300046375</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744865</v>
+        <v>10818.91345744825</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.2807518188</v>
+        <v>30823.28075181858</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054877</v>
+        <v>65071.59368054895</v>
       </c>
       <c r="M3" t="n">
         <v>90993.97560824345</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282921</v>
+        <v>37822.10612282935</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,37 +26418,37 @@
         <v>247648.567042389</v>
       </c>
       <c r="C4" t="n">
-        <v>211626.0773539985</v>
+        <v>211626.0773539988</v>
       </c>
       <c r="D4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="E4" t="n">
         <v>8640.730639119232</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="G4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="H4" t="n">
-        <v>8720.723770518931</v>
+        <v>8720.723770518933</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
@@ -26470,7 +26470,7 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.9102163817</v>
+        <v>72576.91021638163</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457107.2004260642</v>
+        <v>-457107.2004260644</v>
       </c>
       <c r="C6" t="n">
-        <v>116902.837221437</v>
+        <v>116902.837221438</v>
       </c>
       <c r="D6" t="n">
-        <v>39583.70672508897</v>
+        <v>39583.70672508804</v>
       </c>
       <c r="E6" t="n">
-        <v>39839.35409095403</v>
+        <v>39651.72398736895</v>
       </c>
       <c r="F6" t="n">
-        <v>269026.9692757254</v>
+        <v>268981.0642801597</v>
       </c>
       <c r="G6" t="n">
-        <v>412878.9992803627</v>
+        <v>412833.094284797</v>
       </c>
       <c r="H6" t="n">
-        <v>412878.9992803627</v>
+        <v>412833.0942847971</v>
       </c>
       <c r="I6" t="n">
-        <v>403976.5901254039</v>
+        <v>403941.8521999687</v>
       </c>
       <c r="J6" t="n">
-        <v>345796.3491637383</v>
+        <v>345761.6112383028</v>
       </c>
       <c r="K6" t="n">
-        <v>383972.2228310338</v>
+        <v>383937.4849055983</v>
       </c>
       <c r="L6" t="n">
-        <v>349723.9099023037</v>
+        <v>349689.1719768678</v>
       </c>
       <c r="M6" t="n">
-        <v>323801.527974609</v>
+        <v>323766.7900491733</v>
       </c>
       <c r="N6" t="n">
-        <v>376973.3974600233</v>
+        <v>376938.6595345875</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363633</v>
+        <v>717.1508385363625</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1232.028328053768</v>
@@ -26790,22 +26790,22 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.4773344784373</v>
+        <v>383.4773344784364</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1005.723335527927</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668849</v>
+        <v>103.0958247668841</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811759</v>
+        <v>216.9140535811766</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362286</v>
+        <v>297.963435936229</v>
       </c>
       <c r="F3" t="n">
         <v>126.0127206626178</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.7634544769302</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216023</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278882</v>
+        <v>365.1385034278884</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980795</v>
+        <v>154.4219547980798</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.7634544769302</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216023</v>
       </c>
       <c r="M4" t="n">
         <v>365.1385034278882</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980795</v>
+        <v>154.42195479808</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769311</v>
+        <v>119.7634544769302</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976216016</v>
+        <v>257.1074976216023</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278882</v>
+        <v>365.1385034278884</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980795</v>
+        <v>154.4219547980798</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>145.6123979428289</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>102.6175812290062</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>103.0669157327316</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27476,7 +27476,7 @@
         <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,19 +27509,19 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3907230540234</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>56.94883161179978</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>79.74982768752002</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>343.2289575832657</v>
+        <v>158.799985852555</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9490894518052</v>
+        <v>309.9490894518053</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3283209164435</v>
+        <v>99.32832091644362</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394217</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4754363151146</v>
@@ -27673,7 +27673,7 @@
         <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.760604177616301</v>
+        <v>2.760604177617154</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199577</v>
+        <v>97.3376504019958</v>
       </c>
       <c r="I6" t="n">
-        <v>11.24168848160105</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.384369338296423</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.857319143308104</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>149.2871771917474</v>
       </c>
       <c r="D7" t="n">
-        <v>12.94436024000649</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
         <v>116.559737650565</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1453906001063</v>
+        <v>119.1453906001064</v>
       </c>
       <c r="S7" t="n">
         <v>201.4792511931328</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>147.1726776072962</v>
       </c>
       <c r="H8" t="n">
-        <v>223.4566092024356</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.4154405304713</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,13 +28062,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29746,10 +29746,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.012829863332224e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.330921904671854e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29970,7 +29970,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>4.798841391264194e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377338</v>
+        <v>2.883018446377335</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396192</v>
+        <v>29.52571266396188</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539624</v>
+        <v>111.1475686539623</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632188</v>
+        <v>244.6925868632185</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983716</v>
+        <v>366.7307576983711</v>
       </c>
       <c r="L5" t="n">
-        <v>454.9619334766921</v>
+        <v>454.9619334766916</v>
       </c>
       <c r="M5" t="n">
-        <v>506.232812772455</v>
+        <v>506.2328127724545</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332247</v>
+        <v>514.4241889332242</v>
       </c>
       <c r="O5" t="n">
-        <v>485.75617425706</v>
+        <v>485.7561742570595</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621194</v>
+        <v>414.581656362119</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.333558251231</v>
+        <v>311.3335582512306</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1004074822506</v>
+        <v>181.1004074822504</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682365</v>
+        <v>65.69678284682357</v>
       </c>
       <c r="T5" t="n">
-        <v>12.6204132490168</v>
+        <v>12.62041324901679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101869</v>
+        <v>0.2306414757101867</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542550860248027</v>
+        <v>1.542550860248025</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450068</v>
+        <v>14.89779383450066</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538163</v>
+        <v>53.10975549538157</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236963</v>
+        <v>145.7372284236961</v>
       </c>
       <c r="K6" t="n">
-        <v>249.088136060314</v>
+        <v>249.0881360603138</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183271</v>
+        <v>334.9297383183267</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023179</v>
+        <v>390.8472070023175</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695076</v>
+        <v>401.1917695695072</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819066</v>
+        <v>367.0120899819062</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678886</v>
+        <v>294.5595585678882</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958709</v>
+        <v>196.9052641958707</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77346481434682</v>
+        <v>95.77346481434671</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171223</v>
+        <v>28.6522056717122</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631298</v>
+        <v>6.217562458631291</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268439</v>
+        <v>0.1014836092268438</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590163</v>
+        <v>1.293222823590162</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882891</v>
+        <v>11.4979265588289</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669328</v>
+        <v>38.89073727669324</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782453</v>
+        <v>91.43085362782443</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589298</v>
+        <v>150.2489789589297</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2669641544867</v>
+        <v>192.2669641544864</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833198</v>
+        <v>202.7185558833196</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226657</v>
+        <v>197.8983617226655</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289078</v>
+        <v>182.7911678289076</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276684</v>
+        <v>156.4094222276682</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2897766189909</v>
+        <v>108.2897766189907</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706314</v>
+        <v>58.14800077706307</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383947</v>
+        <v>22.53734684383945</v>
       </c>
       <c r="T7" t="n">
-        <v>5.525588428067059</v>
+        <v>5.525588428067053</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0705394267412817</v>
+        <v>0.07053942674128162</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718661</v>
+        <v>4.952877700718662</v>
       </c>
       <c r="H11" t="n">
-        <v>50.723658752485</v>
+        <v>50.72365875248501</v>
       </c>
       <c r="I11" t="n">
         <v>190.9458175569564</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513708</v>
+        <v>420.3693037513709</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227918</v>
+        <v>630.024616822792</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561608</v>
+        <v>781.6012477561609</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663163</v>
+        <v>869.6819865663164</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334832</v>
+        <v>883.7543503334833</v>
       </c>
       <c r="O11" t="n">
-        <v>834.504172696962</v>
+        <v>834.5041726969621</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604699</v>
+        <v>712.23000446047</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034827</v>
+        <v>534.8550718034828</v>
       </c>
       <c r="R11" t="n">
         <v>311.1212038677689</v>
@@ -31792,7 +31792,7 @@
         <v>21.68122213489595</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574928</v>
+        <v>0.3962302160574929</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191123</v>
+        <v>2.650023196191124</v>
       </c>
       <c r="H12" t="n">
         <v>25.59364507900375</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851018</v>
+        <v>91.23983372851019</v>
       </c>
       <c r="J12" t="n">
         <v>250.3690774962851</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410903</v>
+        <v>427.9206316410904</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273753</v>
+        <v>575.3920979273754</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893033</v>
+        <v>671.4554387893035</v>
       </c>
       <c r="N12" t="n">
-        <v>394.0764140541163</v>
+        <v>689.2268662760415</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446485</v>
+        <v>630.5079312446486</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849523</v>
+        <v>210.8877491630271</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837456</v>
+        <v>49.22301857837457</v>
       </c>
       <c r="T12" t="n">
         <v>10.68145314605106</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283634</v>
+        <v>0.1743436313283635</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31923,31 +31923,31 @@
         <v>258.1200333201172</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326446</v>
+        <v>330.3047750326447</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731251002</v>
+        <v>348.2600731251003</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857227</v>
+        <v>339.9792269857228</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537703</v>
+        <v>314.0258433537704</v>
       </c>
       <c r="P13" t="n">
-        <v>268.703358629956</v>
+        <v>268.7033586299561</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361189</v>
+        <v>186.036277536119</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088416</v>
+        <v>99.89528050088417</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801757</v>
+        <v>38.71800499801758</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725749</v>
+        <v>9.492677281725751</v>
       </c>
       <c r="U13" t="n">
         <v>0.121183114234797</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,31 +32069,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>130.863952409078</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>421.3049304638549</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,40 +32385,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>139.4267020936829</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>348.185763266025</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426206</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32622,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R22" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32786,31 +32786,31 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653251</v>
+        <v>63.64668233653222</v>
       </c>
       <c r="K5" t="n">
-        <v>146.640906653391</v>
+        <v>146.6409066533906</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067048</v>
+        <v>219.1955185067043</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451823</v>
+        <v>275.8865795451818</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366338</v>
+        <v>285.0111253366333</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353733</v>
+        <v>255.6579628353727</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068499</v>
+        <v>183.3486606068494</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.02786837678147</v>
+        <v>89.02786837678107</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.41334788081797</v>
+        <v>18.89960175702942</v>
       </c>
       <c r="K6" t="n">
-        <v>111.246697085955</v>
+        <v>342.6526265346213</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384529</v>
+        <v>196.3753585384525</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730802996</v>
+        <v>248.7131730802992</v>
       </c>
       <c r="N6" t="n">
-        <v>269.8500574861744</v>
+        <v>269.8500574861739</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374621</v>
+        <v>224.4158455374617</v>
       </c>
       <c r="P6" t="n">
-        <v>383.4773344784373</v>
+        <v>160.585151153558</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.92349010984941</v>
+        <v>56.92349010984921</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.979487133047</v>
+        <v>127.9794871330468</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148028</v>
+        <v>219.8569894148026</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451604</v>
+        <v>242.3024328451602</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018943</v>
+        <v>242.0305341018941</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429475</v>
+        <v>207.3762957429473</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925619</v>
+        <v>153.6879814925617</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729647</v>
+        <v>22.12773336729634</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246845</v>
+        <v>239.3233992246846</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778113</v>
+        <v>409.9347657778115</v>
       </c>
       <c r="L11" t="n">
         <v>545.8348327861736</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390435</v>
+        <v>639.3357533390437</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368922</v>
+        <v>654.3412867368925</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752752</v>
+        <v>604.4059612752753</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087052004</v>
+        <v>480.9970087052005</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290332</v>
+        <v>312.5493819290333</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363676</v>
+        <v>95.53566605363682</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>123.5314508296184</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667313</v>
+        <v>290.0791926667314</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475011</v>
+        <v>436.8377181475012</v>
       </c>
       <c r="M12" t="n">
         <v>529.3214048672851</v>
       </c>
       <c r="N12" t="n">
-        <v>262.734701970783</v>
+        <v>557.8851541927082</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002041</v>
+        <v>487.9116868002042</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706221</v>
+        <v>76.91334174869691</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732969</v>
+        <v>63.71433311732972</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942343</v>
+        <v>235.8505414942344</v>
       </c>
       <c r="L13" t="n">
         <v>357.8948002929608</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869408</v>
+        <v>387.8439500869409</v>
       </c>
       <c r="N13" t="n">
         <v>384.1113993649514</v>
@@ -35583,10 +35583,10 @@
         <v>338.61097126781</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948495</v>
+        <v>265.9819178948496</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442456</v>
+        <v>99.87423428442459</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>4.026325742411343</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053135</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977657</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>278.7086860194105</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12.58907542701622</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>210.344324291666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981762</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295202</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060454</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
